--- a/calculations/motor_calculations.xlsx
+++ b/calculations/motor_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\stepper-satellite\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD1829-58A1-4BED-A861-DB38B89032B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28FDBAF-D00F-4993-94D6-9D89A46E1519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEPPER AND INTERUPT" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>rpm</t>
   </si>
@@ -139,9 +139,6 @@
     <t xml:space="preserve">RUNTIME BASED COUNTER CALCULATION </t>
   </si>
   <si>
-    <t>chosen runtime</t>
-  </si>
-  <si>
     <t>determined experimentally</t>
   </si>
   <si>
@@ -149,18 +146,6 @@
   </si>
   <si>
     <t>time for a full round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured possible max runtime </t>
-  </si>
-  <si>
-    <t>possible harmonized runtime</t>
-  </si>
-  <si>
-    <t>estimated harmonization cost 4us</t>
-  </si>
-  <si>
-    <t>equal or bigger (if motor is not able to reach topspeed)</t>
   </si>
   <si>
     <t xml:space="preserve">* switch actions per step
@@ -210,6 +195,9 @@
   </si>
   <si>
     <t>min motor speed</t>
+  </si>
+  <si>
+    <t>measured average runtime</t>
   </si>
 </sst>
 </file>
@@ -432,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -491,9 +479,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,6 +494,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -517,15 +511,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2044,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G5:K41"/>
+  <dimension ref="G5:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,27 +2041,27 @@
     <col min="7" max="7" width="38" style="7" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="4"/>
     <col min="10" max="10" width="21.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="31"/>
+    <col min="11" max="11" width="11.42578125" style="27"/>
     <col min="12" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="5" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="30"/>
+      <c r="G5" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="26"/>
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="21">
         <v>1750</v>
       </c>
       <c r="J6" s="10" t="s">
@@ -2095,7 +2080,7 @@
     </row>
     <row r="8" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G8" s="16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H8" s="17" t="s">
         <v>2</v>
@@ -2109,7 +2094,7 @@
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G9" s="16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H9" s="17" t="s">
         <v>4</v>
@@ -2124,7 +2109,7 @@
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G10" s="16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H10" s="17" t="s">
         <v>1</v>
@@ -2136,7 +2121,7 @@
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G11" s="16" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H11" s="17" t="s">
         <v>4</v>
@@ -2145,12 +2130,12 @@
         <v>2</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G12" s="16" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H12" s="17" t="s">
         <v>3</v>
@@ -2162,7 +2147,7 @@
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G13" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H13" s="17" t="s">
         <v>4</v>
@@ -2176,7 +2161,7 @@
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G14" s="16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H14" s="17" t="s">
         <v>3</v>
@@ -2202,256 +2187,226 @@
       <c r="K16" s="17"/>
     </row>
     <row r="18" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="26" t="s">
+      <c r="G18" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="30"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="G19" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="H19" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="G20" s="18" t="s">
+      <c r="I19" s="12">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="25">
+        <v>100</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="14">
+        <f>(I20/60)*I9*I11*I13</f>
+        <v>1333.3333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="14">
+        <f>1/I21*10^6</f>
+        <v>749.99999999999989</v>
+      </c>
+      <c r="J22" s="11" t="s">
         <v>36</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="12">
-        <f>I19+4</f>
-        <v>32</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="12">
-        <f>I20</f>
-        <v>32</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="29">
-        <v>100</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G23" s="16" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H23" s="17" t="s">
         <v>4</v>
       </c>
       <c r="I23" s="14">
-        <f>(I22/60)*I9*I11*I13</f>
-        <v>1333.3333333333335</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
+        <f>I22/I19</f>
+        <v>75.528700906344397</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" ht="30" x14ac:dyDescent="0.25">
       <c r="G24" s="16" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H24" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="14">
-        <f>1/I23*10^6</f>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>41</v>
+        <v>4</v>
+      </c>
+      <c r="I24" s="12">
+        <v>5</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G25" s="16" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14">
-        <f>I24/I21</f>
-        <v>23.437499999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="7:11" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="I25" s="15">
+        <f>I24*I19</f>
+        <v>49.65</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
       <c r="G26" s="16" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="12">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="I26" s="15">
+        <f>I25*I13*I11</f>
+        <v>198.6</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G27" s="16" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="H27" s="17" t="s">
         <v>6</v>
       </c>
       <c r="I27" s="15">
-        <f>I26*I21</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="G28" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="17" t="s">
+        <f>I26*I9</f>
+        <v>39720</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="14">
+        <f>10^6/I27*60</f>
+        <v>1510.5740181268884</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="17"/>
+    </row>
+    <row r="33" spans="7:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I28" s="15">
-        <f>I27*I13*I11</f>
-        <v>256</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="15">
-        <f>I28*I9</f>
-        <v>51200</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
-        <f>10^6/I29*60</f>
-        <v>1171.875</v>
-      </c>
-    </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="17"/>
-    </row>
-    <row r="35" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G35" s="8" t="s">
-        <v>29</v>
+      <c r="I35" s="5">
+        <f>1/I34</f>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G36" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="I36" s="9">
+        <v>1</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
       <c r="G37" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="9">
+        <v>50</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I37" s="5">
-        <f>1/I36</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="I38" s="5">
+        <f>I35*I36*I37</f>
+        <v>3.125</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G39" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="9">
-        <v>50</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="5">
-        <f>I37*I38*I39</f>
-        <v>3.125</v>
-      </c>
-    </row>
-    <row r="41" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="5">
-        <f>1/I40*10^6/1000</f>
+      <c r="I39" s="5">
+        <f>1/I38*10^6/1000</f>
         <v>320</v>
       </c>
     </row>
@@ -2481,19 +2436,19 @@
   <sheetData>
     <row r="4" spans="5:14" ht="203.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="5:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="J7" s="28" t="s">
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="J7" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
     </row>
     <row r="9" spans="5:14" ht="60" x14ac:dyDescent="0.25">
       <c r="E9" s="1" t="s">

--- a/calculations/motor_calculations.xlsx
+++ b/calculations/motor_calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\stepper-satellite\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28FDBAF-D00F-4993-94D6-9D89A46E1519}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A874CD7B-26DF-41CB-B9F8-9865F2F2838D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2032,7 +2032,7 @@
   <dimension ref="G5:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2203,7 +2203,7 @@
         <v>6</v>
       </c>
       <c r="I19" s="12">
-        <v>9.93</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
       </c>
       <c r="I23" s="14">
         <f>I22/I19</f>
-        <v>75.528700906344397</v>
+        <v>68.181818181818173</v>
       </c>
     </row>
     <row r="24" spans="7:11" ht="30" x14ac:dyDescent="0.25">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="I25" s="15">
         <f>I24*I19</f>
-        <v>49.65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
@@ -2294,7 +2294,7 @@
       </c>
       <c r="I26" s="15">
         <f>I25*I13*I11</f>
-        <v>198.6</v>
+        <v>220</v>
       </c>
       <c r="J26" s="10" t="s">
         <v>34</v>
@@ -2309,7 +2309,7 @@
       </c>
       <c r="I27" s="15">
         <f>I26*I9</f>
-        <v>39720</v>
+        <v>44000</v>
       </c>
       <c r="J27" s="10" t="s">
         <v>35</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I28" s="14">
         <f>10^6/I27*60</f>
-        <v>1510.5740181268884</v>
+        <v>1363.6363636363635</v>
       </c>
     </row>
     <row r="29" spans="7:11" x14ac:dyDescent="0.25">

--- a/calculations/motor_calculations.xlsx
+++ b/calculations/motor_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\stepper-satellite\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A874CD7B-26DF-41CB-B9F8-9865F2F2838D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{078EE4CB-C5E0-4BAA-9E9E-E468F7CA3DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STEPPER AND INTERUPT" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>rpm</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>STEP NO</t>
-  </si>
-  <si>
-    <t>RPM RUNTIME BOUND ACC</t>
-  </si>
-  <si>
-    <t>RPM LINEAR ACC</t>
   </si>
   <si>
     <t>spec</t>
@@ -198,6 +192,37 @@
   </si>
   <si>
     <t>measured average runtime</t>
+  </si>
+  <si>
+    <t>TIME PER STEP</t>
+  </si>
+  <si>
+    <t>TIME ELAPSED</t>
+  </si>
+  <si>
+    <t>RPM
+LINEAR DELAY</t>
+  </si>
+  <si>
+    <t>LINEAR DELAY REDUCTION / EXPONENTIAL TIME PER STEP</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Acceleration time</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>RPM LINEAR ACCELERATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPM </t>
+  </si>
+  <si>
+    <t>TIME PER STEP ROUNDED</t>
   </si>
 </sst>
 </file>
@@ -271,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -300,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -413,6 +444,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -420,15 +477,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -506,11 +557,40 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -567,11 +647,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RPM AND ACCELERATION'!$N$9</c:f>
+              <c:f>'RPM AND ACCELERATION'!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPM RUNTIME BOUND ACC</c:v>
+                  <c:v>RPM
+LINEAR DELAY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -590,7 +671,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'RPM AND ACCELERATION'!$N$10:$N$30</c:f>
+              <c:f>'RPM AND ACCELERATION'!$N$9:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -672,11 +753,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RPM AND ACCELERATION'!$E$9</c:f>
+              <c:f>'RPM AND ACCELERATION'!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPM LINEAR ACC</c:v>
+                  <c:v>RPM LINEAR ACCELERATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -695,7 +776,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'RPM AND ACCELERATION'!$E$10:$E$30</c:f>
+              <c:f>'RPM AND ACCELERATION'!$E$9:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1111,7 +1192,429 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RPM AND ACCELERATION'!$W$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RPM AND ACCELERATION'!$S$9:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6649</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RPM AND ACCELERATION'!$W$9:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.26315789473684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.64705882352941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.84615384615387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>222.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6DA2-4B5D-A793-5CC04ED6F40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148629631"/>
+        <c:axId val="150125983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148629631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150125983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150125983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148629631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1648,6 +2151,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1700,6 +2719,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>499753</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>378525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2560369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BCECE1-55EB-41D1-B082-9EA14BF676BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2032,380 +3087,380 @@
   <dimension ref="G5:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="4"/>
-    <col min="7" max="7" width="38" style="7" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="21.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="27"/>
-    <col min="12" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="38" style="5" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="21.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="25"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="26"/>
+    <row r="5" spans="7:11" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="19">
         <v>1750</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <f>I6/60</f>
         <v>29.166666666666668</v>
       </c>
     </row>
     <row r="8" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>1.8</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f>360/I8</f>
         <v>200</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f>I7*I9</f>
         <v>5833.3333333333339</v>
       </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>38</v>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <f>I10*I11</f>
         <v>11666.666666666668</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>2</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f>I12*I13</f>
         <v>23333.333333333336</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <f>1/I14*10^6</f>
         <v>42.857142857142847</v>
       </c>
     </row>
     <row r="16" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="17"/>
-    </row>
-    <row r="18" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="26"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="18" spans="7:11" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24"/>
     </row>
     <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="17" t="s">
+      <c r="G19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="12">
-        <v>11</v>
+      <c r="I19" s="41">
+        <v>11.03</v>
       </c>
     </row>
     <row r="20" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="19" t="s">
+      <c r="G20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="H20" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="23">
         <v>100</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>39</v>
+      <c r="J20" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G21" s="16" t="s">
+      <c r="G21" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="12">
         <f>(I20/60)*I9*I11*I13</f>
         <v>1333.3333333333335</v>
       </c>
     </row>
     <row r="22" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="12">
         <f>1/I21*10^6</f>
         <v>749.99999999999989</v>
       </c>
-      <c r="J22" s="11" t="s">
-        <v>36</v>
+      <c r="J22" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="G23" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="12">
         <f>I22/I19</f>
-        <v>68.181818181818173</v>
+        <v>67.996373526745231</v>
       </c>
     </row>
     <row r="24" spans="7:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G24" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="G24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I24" s="12">
+      <c r="I24" s="10">
         <v>5</v>
       </c>
-      <c r="J24" s="10" t="s">
+      <c r="J24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13">
+        <f>I24*I19</f>
+        <v>55.15</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="13">
+        <f>I25*I13*I11</f>
+        <v>220.6</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G25" s="16" t="s">
+      <c r="H27" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I27" s="13">
+        <f>I26*I9</f>
+        <v>44120</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <f>10^6/I27*60</f>
+        <v>1359.9274705349048</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="33" spans="7:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3">
         <v>16</v>
       </c>
-      <c r="H25" s="17" t="s">
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I25" s="15">
-        <f>I24*I19</f>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="G26" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I26" s="15">
-        <f>I25*I13*I11</f>
-        <v>220</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G27" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="15">
-        <f>I26*I9</f>
-        <v>44000</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I28" s="14">
-        <f>10^6/I27*60</f>
-        <v>1363.6363636363635</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="K29" s="17"/>
-    </row>
-    <row r="33" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G33" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G34" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H34" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I34" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G35" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <f>1/I34</f>
         <v>6.25E-2</v>
       </c>
     </row>
     <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
+      <c r="G36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H36" s="4" t="s">
+      <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I36" s="9">
+      <c r="I36" s="7">
         <v>1</v>
       </c>
-      <c r="J36" s="10" t="s">
+      <c r="J36" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I37" s="9">
+      <c r="I37" s="7">
         <v>50</v>
       </c>
-      <c r="J37" s="10" t="s">
+      <c r="J37" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="3">
         <f>I35*I36*I37</f>
         <v>3.125</v>
       </c>
     </row>
     <row r="39" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="3">
         <f>1/I38*10^6/1000</f>
         <v>320</v>
       </c>
@@ -2422,819 +3477,1515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E4:N30"/>
+  <dimension ref="E4:W32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="23" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:14" ht="203.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="5:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="29" t="s">
+    <row r="4" spans="5:23" ht="203.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="5:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="J7" s="30" t="s">
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="J7" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="30"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="9" spans="5:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="P7" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
+      <c r="W7" s="32"/>
+    </row>
+    <row r="8" spans="5:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="E8" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I8" s="36"/>
+      <c r="J8" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K8" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L8" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M8" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N8" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="O8" s="36"/>
+      <c r="P8" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="R8" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="S8" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="T8" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="28">
+        <v>0</v>
+      </c>
+      <c r="F9" s="29">
+        <f>E9/60</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
+      <c r="J9" s="31">
+        <v>1</v>
+      </c>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29">
+        <f>N9/60</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="28">
+        <v>0</v>
+      </c>
+      <c r="P9" s="31">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="31">
+        <v>1</v>
+      </c>
+      <c r="R9" s="31">
+        <f>ROUND(Q9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="31">
+        <f>Q9</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29"/>
+      <c r="V9" s="29">
+        <f>W9/60</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="28">
+        <v>100</v>
+      </c>
+      <c r="F10" s="29">
+        <f t="shared" ref="F10:F29" si="0">E10/60</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G10" s="30">
+        <f t="shared" ref="G10:G29" si="1">1000/F10</f>
+        <v>600</v>
+      </c>
+      <c r="H10" s="29">
+        <f>G10-G9</f>
+        <v>600</v>
+      </c>
+      <c r="J10" s="31">
+        <v>2</v>
+      </c>
+      <c r="K10" s="30">
+        <f>G10</f>
+        <v>600</v>
+      </c>
+      <c r="L10" s="29">
+        <f>K10-K9</f>
+        <v>600</v>
+      </c>
+      <c r="M10" s="29">
+        <f>1000/K10</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N10" s="29">
+        <f t="shared" ref="N10:N28" si="2">M10*60</f>
+        <v>100</v>
+      </c>
+      <c r="P10" s="31">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="31">
+        <f>Q9*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="R10" s="31">
+        <f t="shared" ref="R10:R29" si="3">ROUND(Q10,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="31">
+        <f>S9+R10</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="30">
+        <f>G10</f>
+        <v>600</v>
+      </c>
+      <c r="U10" s="29">
+        <f>T10-T9</f>
+        <v>600</v>
+      </c>
+      <c r="V10" s="29">
+        <f>1000/T10</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="W10" s="29">
+        <f>V10*60</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E11" s="28">
+        <v>200</v>
+      </c>
+      <c r="F11" s="29">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G11" s="29">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H11" s="29">
+        <f t="shared" ref="H11:H28" si="4">G11-G10</f>
+        <v>-300</v>
+      </c>
+      <c r="J11" s="31">
+        <v>3</v>
+      </c>
+      <c r="K11" s="29">
+        <f>K10-(K$10-K$29)/(J$29-J$10)</f>
+        <v>570</v>
+      </c>
+      <c r="L11" s="29">
+        <f>K11-K10</f>
+        <v>-30</v>
+      </c>
+      <c r="M11" s="29">
+        <f>1000/K11</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="N11" s="29">
+        <f t="shared" si="2"/>
+        <v>105.26315789473684</v>
+      </c>
+      <c r="P11" s="31">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="31">
+        <f t="shared" ref="Q11:Q29" si="5">Q10*1.5</f>
+        <v>2.25</v>
+      </c>
+      <c r="R11" s="31">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S11" s="31">
+        <f t="shared" ref="S11:S29" si="6">S10+R11</f>
+        <v>5</v>
+      </c>
+      <c r="T11" s="29">
+        <f>T10-(T$10-T$29)/(P$29-P$10)</f>
+        <v>570</v>
+      </c>
+      <c r="U11" s="29">
+        <f t="shared" ref="U11:U29" si="7">T11-T10</f>
+        <v>-30</v>
+      </c>
+      <c r="V11" s="29">
+        <f t="shared" ref="V11:V29" si="8">1000/T11</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="W11" s="29">
+        <f t="shared" ref="W11:W28" si="9">V11*60</f>
+        <v>105.26315789473684</v>
+      </c>
+    </row>
+    <row r="12" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E12" s="28">
+        <v>300</v>
+      </c>
+      <c r="F12" s="29">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="29">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="J12" s="31">
+        <v>4</v>
+      </c>
+      <c r="K12" s="29">
+        <f>K11-(K$10-K$29)/(J$29-J$10)</f>
+        <v>540</v>
+      </c>
+      <c r="L12" s="29">
+        <f>K12-K11</f>
+        <v>-30</v>
+      </c>
+      <c r="M12" s="29">
+        <f t="shared" ref="M12:M29" si="10">1000/K12</f>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="N12" s="29">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="P12" s="31">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="31">
+        <f t="shared" si="5"/>
+        <v>3.375</v>
+      </c>
+      <c r="R12" s="31">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="31">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="29">
+        <f>T11-(T$10-T$29)/(P$29-P$10)</f>
+        <v>540</v>
+      </c>
+      <c r="U12" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V12" s="29">
+        <f t="shared" si="8"/>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="W12" s="29">
+        <f t="shared" si="9"/>
+        <v>111.11111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="28">
+        <v>400</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G13" s="29">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" si="4"/>
+        <v>-50</v>
+      </c>
+      <c r="J13" s="31">
+        <v>5</v>
+      </c>
+      <c r="K13" s="29">
+        <f>K12-(K$10-K$29)/(J$29-J$10)</f>
+        <v>510</v>
+      </c>
+      <c r="L13" s="29">
+        <f t="shared" ref="L13:L29" si="11">K13-K12</f>
+        <v>-30</v>
+      </c>
+      <c r="M13" s="29">
+        <f t="shared" si="10"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="N13" s="29">
+        <f t="shared" si="2"/>
+        <v>117.64705882352941</v>
+      </c>
+      <c r="P13" s="31">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="31">
+        <f t="shared" si="5"/>
+        <v>5.0625</v>
+      </c>
+      <c r="R13" s="31">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="31">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="T13" s="29">
+        <f>T12-(T$10-T$29)/(P$29-P$10)</f>
+        <v>510</v>
+      </c>
+      <c r="U13" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V13" s="29">
+        <f t="shared" si="8"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="W13" s="29">
+        <f t="shared" si="9"/>
+        <v>117.64705882352941</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="28">
+        <v>500</v>
+      </c>
+      <c r="F14" s="29">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G14" s="29">
+        <f t="shared" si="1"/>
+        <v>119.99999999999999</v>
+      </c>
+      <c r="H14" s="29">
+        <f t="shared" si="4"/>
+        <v>-30.000000000000014</v>
+      </c>
+      <c r="J14" s="31">
+        <v>6</v>
+      </c>
+      <c r="K14" s="29">
+        <f>K13-(K$10-K$29)/(J$29-J$10)</f>
+        <v>480</v>
+      </c>
+      <c r="L14" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M14" s="29">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="N14" s="29">
+        <f t="shared" si="2"/>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="P14" s="31">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="31">
+        <f t="shared" si="5"/>
+        <v>7.59375</v>
+      </c>
+      <c r="R14" s="31">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S14" s="31">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="T14" s="29">
+        <f>T13-(T$10-T$29)/(P$29-P$10)</f>
+        <v>480</v>
+      </c>
+      <c r="U14" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V14" s="29">
+        <f t="shared" si="8"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="W14" s="29">
+        <f t="shared" si="9"/>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="28">
+        <v>600</v>
+      </c>
+      <c r="F15" s="29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="29">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="29">
+        <f t="shared" si="4"/>
+        <v>-19.999999999999986</v>
+      </c>
+      <c r="J15" s="31">
+        <v>7</v>
+      </c>
+      <c r="K15" s="29">
+        <f>K14-(K$10-K$29)/(J$29-J$10)</f>
+        <v>450</v>
+      </c>
+      <c r="L15" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M15" s="29">
+        <f t="shared" si="10"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N15" s="29">
+        <f t="shared" si="2"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="P15" s="31">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="31">
+        <f t="shared" si="5"/>
+        <v>11.390625</v>
+      </c>
+      <c r="R15" s="31">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="31">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="T15" s="29">
+        <f>T14-(T$10-T$29)/(P$29-P$10)</f>
+        <v>450</v>
+      </c>
+      <c r="U15" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V15" s="29">
+        <f t="shared" si="8"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="W15" s="29">
+        <f t="shared" si="9"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E16" s="28">
+        <v>700</v>
+      </c>
+      <c r="F16" s="29">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="G16" s="29">
+        <f t="shared" si="1"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="H16" s="29">
+        <f t="shared" si="4"/>
+        <v>-14.285714285714278</v>
+      </c>
+      <c r="J16" s="31">
+        <v>8</v>
+      </c>
+      <c r="K16" s="29">
+        <f>K15-(K$10-K$29)/(J$29-J$10)</f>
+        <v>420</v>
+      </c>
+      <c r="L16" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M16" s="29">
+        <f t="shared" si="10"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="N16" s="29">
+        <f t="shared" si="2"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="P16" s="31">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="31">
+        <f t="shared" si="5"/>
+        <v>17.0859375</v>
+      </c>
+      <c r="R16" s="31">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S16" s="31">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="T16" s="29">
+        <f>T15-(T$10-T$29)/(P$29-P$10)</f>
+        <v>420</v>
+      </c>
+      <c r="U16" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V16" s="29">
+        <f t="shared" si="8"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="W16" s="29">
+        <f t="shared" si="9"/>
+        <v>142.85714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E17" s="28">
+        <v>800</v>
+      </c>
+      <c r="F17" s="29">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G17" s="29">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H17" s="29">
+        <f t="shared" si="4"/>
+        <v>-10.714285714285722</v>
+      </c>
+      <c r="J17" s="31">
+        <v>9</v>
+      </c>
+      <c r="K17" s="29">
+        <f>K16-(K$10-K$29)/(J$29-J$10)</f>
+        <v>390</v>
+      </c>
+      <c r="L17" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M17" s="29">
+        <f t="shared" si="10"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="N17" s="29">
+        <f t="shared" si="2"/>
+        <v>153.84615384615387</v>
+      </c>
+      <c r="P17" s="31">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="31">
+        <f t="shared" si="5"/>
+        <v>25.62890625</v>
+      </c>
+      <c r="R17" s="31">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f>E10/60</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="e">
-        <f>1000/F10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="2" t="e">
-        <f t="shared" ref="H10:H29" si="0">G10-G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="e">
-        <f>1000/M10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
-        <f t="shared" ref="L10:L30" si="1">K10-K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="2">
-        <f>N10/60</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" ref="F11:F30" si="2">E11/60</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G30" si="3">1000/F11</f>
-        <v>600</v>
-      </c>
-      <c r="H11" s="2" t="e">
+      <c r="S17" s="31">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="T17" s="29">
+        <f>T16-(T$10-T$29)/(P$29-P$10)</f>
+        <v>390</v>
+      </c>
+      <c r="U17" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V17" s="29">
+        <f t="shared" si="8"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="W17" s="29">
+        <f t="shared" si="9"/>
+        <v>153.84615384615387</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E18" s="28">
+        <v>900</v>
+      </c>
+      <c r="F18" s="29">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3">
-        <f>G11</f>
-        <v>600</v>
-      </c>
-      <c r="L11" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="G18" s="29">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" ref="M11:M30" si="4">1000/K11</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:N29" si="5">M11*60</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H18" s="29">
+        <f t="shared" si="4"/>
+        <v>-8.3333333333333286</v>
+      </c>
+      <c r="J18" s="31">
+        <v>10</v>
+      </c>
+      <c r="K18" s="29">
+        <f>K17-(K$10-K$29)/(J$29-J$10)</f>
+        <v>360</v>
+      </c>
+      <c r="L18" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M18" s="29">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="N18" s="29">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="P18" s="31">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="31">
+        <f t="shared" si="5"/>
+        <v>38.443359375</v>
+      </c>
+      <c r="R18" s="31">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S18" s="31">
+        <f t="shared" si="6"/>
+        <v>113</v>
+      </c>
+      <c r="T18" s="29">
+        <f>T17-(T$10-T$29)/(P$29-P$10)</f>
+        <v>360</v>
+      </c>
+      <c r="U18" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V18" s="29">
+        <f t="shared" si="8"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="W18" s="29">
+        <f t="shared" si="9"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E19" s="28">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="29">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G19" s="29">
+        <f t="shared" si="1"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="H19" s="29">
+        <f t="shared" si="4"/>
+        <v>-6.6666666666666785</v>
+      </c>
+      <c r="J19" s="31">
+        <v>11</v>
+      </c>
+      <c r="K19" s="29">
+        <f>K18-(K$10-K$29)/(J$29-J$10)</f>
+        <v>330</v>
+      </c>
+      <c r="L19" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M19" s="29">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="N19" s="29">
+        <f t="shared" si="2"/>
+        <v>181.81818181818181</v>
+      </c>
+      <c r="P19" s="31">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="31">
+        <f t="shared" si="5"/>
+        <v>57.6650390625</v>
+      </c>
+      <c r="R19" s="31">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="S19" s="31">
+        <f t="shared" si="6"/>
+        <v>171</v>
+      </c>
+      <c r="T19" s="29">
+        <f>T18-(T$10-T$29)/(P$29-P$10)</f>
+        <v>330</v>
+      </c>
+      <c r="U19" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V19" s="29">
+        <f t="shared" si="8"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="W19" s="29">
+        <f t="shared" si="9"/>
+        <v>181.81818181818181</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E20" s="28">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="29">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G20" s="29">
+        <f t="shared" si="1"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="H20" s="29">
+        <f t="shared" si="4"/>
+        <v>-5.4545454545454461</v>
+      </c>
+      <c r="J20" s="31">
+        <v>12</v>
+      </c>
+      <c r="K20" s="29">
+        <f>K19-(K$10-K$29)/(J$29-J$10)</f>
+        <v>300</v>
+      </c>
+      <c r="L20" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M20" s="29">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N20" s="29">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F12" s="2">
+      <c r="P20" s="31">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="31">
+        <f t="shared" si="5"/>
+        <v>86.49755859375</v>
+      </c>
+      <c r="R20" s="31">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="S20" s="31">
+        <f t="shared" si="6"/>
+        <v>257</v>
+      </c>
+      <c r="T20" s="29">
+        <f>T19-(T$10-T$29)/(P$29-P$10)</f>
+        <v>300</v>
+      </c>
+      <c r="U20" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V20" s="29">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="W20" s="29">
+        <f t="shared" si="9"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E21" s="28">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="29">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="29">
+        <f t="shared" si="4"/>
+        <v>-4.5454545454545467</v>
+      </c>
+      <c r="J21" s="31">
+        <v>13</v>
+      </c>
+      <c r="K21" s="29">
+        <f>K20-(K$10-K$29)/(J$29-J$10)</f>
+        <v>270</v>
+      </c>
+      <c r="L21" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M21" s="29">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="N21" s="29">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="G12" s="2">
+        <v>222.22222222222223</v>
+      </c>
+      <c r="P21" s="31">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="31">
+        <f t="shared" si="5"/>
+        <v>129.746337890625</v>
+      </c>
+      <c r="R21" s="31">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="H12" s="2">
+        <v>130</v>
+      </c>
+      <c r="S21" s="31">
+        <f t="shared" si="6"/>
+        <v>387</v>
+      </c>
+      <c r="T21" s="29">
+        <f>T20-(T$10-T$29)/(P$29-P$10)</f>
+        <v>270</v>
+      </c>
+      <c r="U21" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V21" s="29">
+        <f t="shared" si="8"/>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="W21" s="29">
+        <f t="shared" si="9"/>
+        <v>222.22222222222223</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E22" s="28">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="29">
         <f t="shared" si="0"/>
-        <v>-300</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12:K29" si="6">K11-(K$11-K$30)/(J$30-J$11)</f>
-        <v>570</v>
-      </c>
-      <c r="L12" s="2">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="G22" s="29">
         <f t="shared" si="1"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="H22" s="29">
+        <f t="shared" si="4"/>
+        <v>-3.8461538461538467</v>
+      </c>
+      <c r="J22" s="31">
+        <v>14</v>
+      </c>
+      <c r="K22" s="29">
+        <f>K21-(K$10-K$29)/(J$29-J$10)</f>
+        <v>240</v>
+      </c>
+      <c r="L22" s="29">
+        <f t="shared" si="11"/>
         <v>-30</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M22" s="29">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N22" s="29">
+        <f t="shared" si="2"/>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="P22" s="31">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="31">
+        <f t="shared" si="5"/>
+        <v>194.6195068359375</v>
+      </c>
+      <c r="R22" s="31">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="S22" s="31">
+        <f t="shared" si="6"/>
+        <v>582</v>
+      </c>
+      <c r="T22" s="29">
+        <f>T21-(T$10-T$29)/(P$29-P$10)</f>
+        <v>240</v>
+      </c>
+      <c r="U22" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V22" s="29">
+        <f t="shared" si="8"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="W22" s="29">
+        <f t="shared" si="9"/>
+        <v>250.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E23" s="28">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="29">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G23" s="29">
+        <f t="shared" si="1"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="H23" s="29">
         <f t="shared" si="4"/>
-        <v>1.7543859649122806</v>
-      </c>
-      <c r="N12" s="2">
+        <v>-3.2967032967032921</v>
+      </c>
+      <c r="J23" s="31">
+        <v>15</v>
+      </c>
+      <c r="K23" s="29">
+        <f>K22-(K$10-K$29)/(J$29-J$10)</f>
+        <v>210</v>
+      </c>
+      <c r="L23" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M23" s="29">
+        <f t="shared" si="10"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="N23" s="29">
+        <f t="shared" si="2"/>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="P23" s="31">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="31">
         <f t="shared" si="5"/>
-        <v>105.26315789473684</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="2">
+        <v>291.92926025390625</v>
+      </c>
+      <c r="R23" s="31">
+        <f t="shared" si="3"/>
+        <v>292</v>
+      </c>
+      <c r="S23" s="31">
+        <f t="shared" si="6"/>
+        <v>874</v>
+      </c>
+      <c r="T23" s="29">
+        <f>T22-(T$10-T$29)/(P$29-P$10)</f>
+        <v>210</v>
+      </c>
+      <c r="U23" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V23" s="29">
+        <f t="shared" si="8"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="W23" s="29">
+        <f t="shared" si="9"/>
+        <v>285.71428571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E24" s="28">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="29">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G24" s="29">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H24" s="29">
+        <f t="shared" si="4"/>
+        <v>-2.8571428571428612</v>
+      </c>
+      <c r="J24" s="31">
+        <v>16</v>
+      </c>
+      <c r="K24" s="29">
+        <f>K23-(K$10-K$29)/(J$29-J$10)</f>
+        <v>180</v>
+      </c>
+      <c r="L24" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M24" s="29">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="N24" s="29">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
+        <v>333.33333333333331</v>
+      </c>
+      <c r="P24" s="31">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="31">
+        <f t="shared" si="5"/>
+        <v>437.89389038085938</v>
+      </c>
+      <c r="R24" s="31">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="H13" s="2">
+        <v>438</v>
+      </c>
+      <c r="S24" s="31">
+        <f t="shared" si="6"/>
+        <v>1312</v>
+      </c>
+      <c r="T24" s="29">
+        <f>T23-(T$10-T$29)/(P$29-P$10)</f>
+        <v>180</v>
+      </c>
+      <c r="U24" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V24" s="29">
+        <f t="shared" si="8"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="W24" s="29">
+        <f t="shared" si="9"/>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E25" s="28">
+        <v>1600</v>
+      </c>
+      <c r="F25" s="29">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="2">
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G25" s="29">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H25" s="29">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J25" s="31">
+        <v>17</v>
+      </c>
+      <c r="K25" s="29">
+        <f>K24-(K$10-K$29)/(J$29-J$10)</f>
+        <v>150</v>
+      </c>
+      <c r="L25" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M25" s="29">
+        <f t="shared" si="10"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N25" s="29">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="P25" s="31">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="31">
+        <f t="shared" si="5"/>
+        <v>656.84083557128906</v>
+      </c>
+      <c r="R25" s="31">
+        <f t="shared" si="3"/>
+        <v>657</v>
+      </c>
+      <c r="S25" s="31">
         <f t="shared" si="6"/>
-        <v>540</v>
-      </c>
-      <c r="L13" s="2">
+        <v>1969</v>
+      </c>
+      <c r="T25" s="29">
+        <f>T24-(T$10-T$29)/(P$29-P$10)</f>
+        <v>150</v>
+      </c>
+      <c r="U25" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V25" s="29">
+        <f t="shared" si="8"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W25" s="29">
+        <f t="shared" si="9"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E26" s="28">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="29">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G26" s="29">
         <f t="shared" si="1"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="H26" s="29">
+        <f t="shared" si="4"/>
+        <v>-2.205882352941174</v>
+      </c>
+      <c r="J26" s="31">
+        <v>18</v>
+      </c>
+      <c r="K26" s="29">
+        <f>K25-(K$10-K$29)/(J$29-J$10)</f>
+        <v>120</v>
+      </c>
+      <c r="L26" s="29">
+        <f t="shared" si="11"/>
         <v>-30</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M26" s="29">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N26" s="29">
+        <f t="shared" si="2"/>
+        <v>500.00000000000006</v>
+      </c>
+      <c r="P26" s="31">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="31">
+        <f t="shared" si="5"/>
+        <v>985.26125335693359</v>
+      </c>
+      <c r="R26" s="31">
+        <f t="shared" si="3"/>
+        <v>985</v>
+      </c>
+      <c r="S26" s="31">
+        <f t="shared" si="6"/>
+        <v>2954</v>
+      </c>
+      <c r="T26" s="29">
+        <f>T25-(T$10-T$29)/(P$29-P$10)</f>
+        <v>120</v>
+      </c>
+      <c r="U26" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V26" s="29">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="W26" s="29">
+        <f t="shared" si="9"/>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E27" s="28">
+        <v>1800</v>
+      </c>
+      <c r="F27" s="29">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="29">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H27" s="29">
         <f t="shared" si="4"/>
-        <v>1.8518518518518519</v>
-      </c>
-      <c r="N13" s="2">
+        <v>-1.9607843137254903</v>
+      </c>
+      <c r="J27" s="31">
+        <v>19</v>
+      </c>
+      <c r="K27" s="29">
+        <f>K26-(K$10-K$29)/(J$29-J$10)</f>
+        <v>90</v>
+      </c>
+      <c r="L27" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M27" s="29">
+        <f t="shared" si="10"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N27" s="29">
+        <f t="shared" si="2"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="P27" s="31">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="31">
         <f t="shared" si="5"/>
-        <v>111.11111111111111</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <v>400</v>
-      </c>
-      <c r="F14" s="2">
+        <v>1477.8918800354004</v>
+      </c>
+      <c r="R27" s="31">
+        <f t="shared" si="3"/>
+        <v>1478</v>
+      </c>
+      <c r="S27" s="31">
+        <f t="shared" si="6"/>
+        <v>4432</v>
+      </c>
+      <c r="T27" s="29">
+        <f>T26-(T$10-T$29)/(P$29-P$10)</f>
+        <v>90</v>
+      </c>
+      <c r="U27" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V27" s="29">
+        <f t="shared" si="8"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="W27" s="29">
+        <f t="shared" si="9"/>
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E28" s="28">
+        <v>1900</v>
+      </c>
+      <c r="F28" s="29">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="G28" s="29">
+        <f t="shared" si="1"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="H28" s="29">
+        <f t="shared" si="4"/>
+        <v>-1.7543859649122844</v>
+      </c>
+      <c r="J28" s="31">
+        <v>20</v>
+      </c>
+      <c r="K28" s="29">
+        <f>K27-(K$10-K$29)/(J$29-J$10)</f>
+        <v>60</v>
+      </c>
+      <c r="L28" s="29">
+        <f t="shared" si="11"/>
+        <v>-30</v>
+      </c>
+      <c r="M28" s="29">
+        <f t="shared" si="10"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="N28" s="29">
         <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G14" s="2">
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="P28" s="31">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="31">
+        <f t="shared" si="5"/>
+        <v>2216.8378200531006</v>
+      </c>
+      <c r="R28" s="31">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="H14" s="2">
+        <v>2217</v>
+      </c>
+      <c r="S28" s="31">
+        <f t="shared" si="6"/>
+        <v>6649</v>
+      </c>
+      <c r="T28" s="29">
+        <f>T27-(T$10-T$29)/(P$29-P$10)</f>
+        <v>60</v>
+      </c>
+      <c r="U28" s="29">
+        <f t="shared" si="7"/>
+        <v>-30</v>
+      </c>
+      <c r="V28" s="29">
+        <f t="shared" si="8"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="W28" s="29">
+        <f t="shared" si="9"/>
+        <v>1000.0000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E29" s="28">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="29">
         <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G29" s="30">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="H29" s="29">
+        <f>G29-G28</f>
+        <v>-1.5789473684210549</v>
+      </c>
+      <c r="J29" s="31">
+        <v>21</v>
+      </c>
+      <c r="K29" s="30">
+        <f>G29</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="L29" s="29">
+        <f t="shared" si="11"/>
+        <v>-30.000000000000004</v>
+      </c>
+      <c r="M29" s="29">
+        <f t="shared" si="10"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N29" s="28">
+        <v>2000</v>
+      </c>
+      <c r="P29" s="31">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="31">
+        <f t="shared" si="5"/>
+        <v>3325.2567300796509</v>
+      </c>
+      <c r="R29" s="31">
+        <f t="shared" si="3"/>
+        <v>3325</v>
+      </c>
+      <c r="S29" s="31">
         <f t="shared" si="6"/>
-        <v>510</v>
-      </c>
-      <c r="L14" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="5"/>
-        <v>117.64705882352941</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <v>500</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="3"/>
-        <v>119.99999999999999</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>-30.000000000000014</v>
-      </c>
-      <c r="J15">
+        <v>9974</v>
+      </c>
+      <c r="T29" s="30">
+        <f>G29</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="U29" s="29">
+        <f t="shared" si="7"/>
+        <v>-30.000000000000004</v>
+      </c>
+      <c r="V29" s="29">
+        <f t="shared" si="8"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="W29" s="28">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="P30" s="27"/>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="Q31" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37">
+        <v>11</v>
+      </c>
+      <c r="T31" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="5"/>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
-        <v>600</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>-19.999999999999986</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="4"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="5"/>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="1">
-        <v>700</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>85.714285714285722</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>-14.285714285714278</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>142.85714285714286</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
-        <v>800</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>-10.714285714285722</v>
-      </c>
-      <c r="J18">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="6"/>
-        <v>390</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="4"/>
-        <v>2.5641025641025643</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="5"/>
-        <v>153.84615384615387</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
-        <v>900</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.3333333333333286</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="4"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="5"/>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>59.999999999999993</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.6666666666666785</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="4"/>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="5"/>
-        <v>181.81818181818181</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.4545454545454461</v>
-      </c>
-      <c r="J21">
-        <v>12</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.5454545454545467</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="5"/>
-        <v>222.22222222222223</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="1">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.8461538461538467</v>
-      </c>
-      <c r="J23">
-        <v>14</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="5"/>
-        <v>250.00000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>42.857142857142861</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.2967032967032921</v>
-      </c>
-      <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="6"/>
-        <v>210</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="4"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="5"/>
-        <v>285.71428571428572</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.8571428571428612</v>
-      </c>
-      <c r="J25">
-        <v>16</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="4"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="5"/>
-        <v>333.33333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="J26">
-        <v>17</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="1">
-        <v>1700</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="2"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="3"/>
-        <v>35.294117647058826</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.205882352941174</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="5"/>
-        <v>500.00000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.9607843137254903</v>
-      </c>
-      <c r="J28">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="5"/>
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="2"/>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>31.578947368421051</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7543859649122844</v>
-      </c>
-      <c r="J29">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="4"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="5"/>
-        <v>1000.0000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="3"/>
-        <v>29.999999999999996</v>
-      </c>
-      <c r="H30" s="2">
-        <f>G30-G29</f>
-        <v>-1.5789473684210549</v>
-      </c>
-      <c r="J30">
-        <v>21</v>
-      </c>
-      <c r="K30" s="3">
-        <f>G30</f>
-        <v>29.999999999999996</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>-30.000000000000004</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2000</v>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="Q32" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="R32" s="38"/>
+      <c r="S32" s="40">
+        <f>S31*S29/1000</f>
+        <v>109.714</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="P7:W7"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="J7:N7"/>
   </mergeCells>

--- a/calculations/motor_calculations.xlsx
+++ b/calculations/motor_calculations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\GitHub\stepper-satellite\calculations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\git\stepper-satellite\calculations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDDD1829-58A1-4BED-A861-DB38B89032B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D15374-0214-48F6-87FA-18C38594CB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="59">
   <si>
     <t>rpm</t>
   </si>
@@ -110,12 +110,6 @@
   </si>
   <si>
     <t>STEP NO</t>
-  </si>
-  <si>
-    <t>RPM RUNTIME BOUND ACC</t>
-  </si>
-  <si>
-    <t>RPM LINEAR ACC</t>
   </si>
   <si>
     <t>spec</t>
@@ -139,9 +133,6 @@
     <t xml:space="preserve">RUNTIME BASED COUNTER CALCULATION </t>
   </si>
   <si>
-    <t>chosen runtime</t>
-  </si>
-  <si>
     <t>determined experimentally</t>
   </si>
   <si>
@@ -149,18 +140,6 @@
   </si>
   <si>
     <t>time for a full round</t>
-  </si>
-  <si>
-    <t xml:space="preserve">measured possible max runtime </t>
-  </si>
-  <si>
-    <t>possible harmonized runtime</t>
-  </si>
-  <si>
-    <t>estimated harmonization cost 4us</t>
-  </si>
-  <si>
-    <t>equal or bigger (if motor is not able to reach topspeed)</t>
   </si>
   <si>
     <t xml:space="preserve">* switch actions per step
@@ -182,12 +161,6 @@
     <t>chosen</t>
   </si>
   <si>
-    <t>runtime counts per switch @ min speed</t>
-  </si>
-  <si>
-    <t>minimum possible counts per switch @ top speed</t>
-  </si>
-  <si>
     <t>step angle</t>
   </si>
   <si>
@@ -210,6 +183,46 @@
   </si>
   <si>
     <t>min motor speed</t>
+  </si>
+  <si>
+    <t>measured average runtime</t>
+  </si>
+  <si>
+    <t>TIME PER STEP</t>
+  </si>
+  <si>
+    <t>TIME ELAPSED</t>
+  </si>
+  <si>
+    <t>RPM
+LINEAR DELAY</t>
+  </si>
+  <si>
+    <t>LINEAR DELAY REDUCTION / EXPONENTIAL TIME PER STEP</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Acceleration time</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>RPM LINEAR ACCELERATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RPM </t>
+  </si>
+  <si>
+    <t>TIME PER STEP ROUNDED</t>
+  </si>
+  <si>
+    <t>minimum possible cycle counts per switch @ top speed</t>
+  </si>
+  <si>
+    <t>runtime cycle counts per switch @ min speed</t>
   </si>
 </sst>
 </file>
@@ -283,7 +296,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -425,6 +444,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -432,15 +477,9 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -491,9 +530,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,15 +545,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -526,6 +553,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -582,11 +647,12 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RPM AND ACCELERATION'!$N$9</c:f>
+              <c:f>'RPM AND ACCELERATION'!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPM RUNTIME BOUND ACC</c:v>
+                  <c:v>RPM
+LINEAR DELAY</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -605,7 +671,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'RPM AND ACCELERATION'!$N$10:$N$30</c:f>
+              <c:f>'RPM AND ACCELERATION'!$N$9:$N$29</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="21"/>
@@ -687,11 +753,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'RPM AND ACCELERATION'!$E$9</c:f>
+              <c:f>'RPM AND ACCELERATION'!$E$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPM LINEAR ACC</c:v>
+                  <c:v>RPM LINEAR ACCELERATION</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -710,7 +776,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'RPM AND ACCELERATION'!$E$10:$E$30</c:f>
+              <c:f>'RPM AND ACCELERATION'!$E$9:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -871,7 +937,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -908,7 +974,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="524172912"/>
@@ -991,7 +1057,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="de-DE"/>
+              <a:endParaRPr lang="en-CH"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1025,7 +1091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-CH"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="874251024"/>
@@ -1078,7 +1144,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-CH"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1115,7 +1181,389 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-CH"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RPM AND ACCELERATION'!$W$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RPM </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RPM AND ACCELERATION'!$S$9:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1312</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2954</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4432</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6649</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RPM AND ACCELERATION'!$W$9:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.26315789473684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.11111111111111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>117.64705882352941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>133.33333333333334</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>142.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>153.84615384615387</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>166.66666666666666</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>181.81818181818181</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>222.22222222222223</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>250.00000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>285.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>333.33333333333331</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>500.00000000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>666.66666666666663</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1000.0000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="General">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-6DA2-4B5D-A793-5CC04ED6F40F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="148629631"/>
+        <c:axId val="150125983"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="148629631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-CH"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="150125983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150125983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="148629631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CH"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-CH"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1166,6 +1614,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1663,6 +2151,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1715,6 +2719,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>499753</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>37111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>378525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2560369</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BCECE1-55EB-41D1-B082-9EA14BF676BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2044,414 +3084,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="G5:K41"/>
+  <dimension ref="G5:K39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="4"/>
-    <col min="7" max="7" width="38" style="7" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="4"/>
-    <col min="10" max="10" width="21.5703125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="31"/>
-    <col min="12" max="16384" width="11.42578125" style="4"/>
+    <col min="1" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="38" style="5" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="2"/>
+    <col min="10" max="10" width="21.5703125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="25"/>
+    <col min="12" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="5" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="30"/>
+    <row r="5" spans="7:11" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="24"/>
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="22">
+      <c r="I6" s="19">
         <v>1750</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>28</v>
+      <c r="J6" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G7" s="16"/>
-      <c r="H7" s="17" t="s">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="11">
         <f>I6/60</f>
         <v>29.166666666666668</v>
       </c>
     </row>
     <row r="8" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G8" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="17" t="s">
+      <c r="G8" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="10">
         <v>1.8</v>
       </c>
-      <c r="J8" s="10" t="s">
-        <v>28</v>
+      <c r="J8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="17" t="s">
+      <c r="G9" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="10">
         <f>360/I8</f>
         <v>200</v>
       </c>
-      <c r="J9" s="10" t="s">
-        <v>28</v>
+      <c r="J9" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G10" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="17" t="s">
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="12">
         <f>I7*I9</f>
         <v>5833.3333333333339</v>
       </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G11" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="17" t="s">
+      <c r="G11" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="10">
         <v>2</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>43</v>
+      <c r="J11" s="8" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G12" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="17" t="s">
+      <c r="G12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="12">
         <f>I10*I11</f>
         <v>11666.666666666668</v>
       </c>
     </row>
     <row r="13" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G13" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="13">
         <v>2</v>
       </c>
-      <c r="J13" s="10" t="s">
+      <c r="J13" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G14" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="17" t="s">
+      <c r="G14" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="12">
         <f>I12*I13</f>
         <v>23333.333333333336</v>
       </c>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="12">
         <f>1/I14*10^6</f>
         <v>42.857142857142847</v>
       </c>
     </row>
     <row r="16" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="K16" s="17"/>
-    </row>
-    <row r="18" spans="7:11" s="6" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G18" s="26" t="s">
+      <c r="K16" s="15"/>
+    </row>
+    <row r="18" spans="7:11" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I19" s="37">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <v>100</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="12">
+        <f>(I20/60)*I9*I11*I13</f>
+        <v>1333.3333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G22" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I22" s="12">
+        <f>1/I21*10^6</f>
+        <v>749.99999999999989</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="7:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="12">
+        <f>I22/I19</f>
+        <v>26.785714285714281</v>
+      </c>
+    </row>
+    <row r="24" spans="7:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="G24" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="10">
+        <v>3</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="13">
+        <f>I24*I19</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H19" s="21" t="s">
+      <c r="H26" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="22">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="G20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="17" t="s">
+      <c r="I26" s="13">
+        <f>I25*I13*I11</f>
+        <v>336</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="I20" s="12">
-        <f>I19+4</f>
-        <v>32</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="7:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="G21" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="17" t="s">
+      <c r="I27" s="13">
+        <f>I26*I9</f>
+        <v>67200</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G28" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28" s="12">
+        <f>10^6/I27*60</f>
+        <v>892.85714285714289</v>
+      </c>
+    </row>
+    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="15"/>
+    </row>
+    <row r="33" spans="7:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="G33" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I21" s="12">
-        <f>I20</f>
-        <v>32</v>
-      </c>
-      <c r="J21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I22" s="29">
-        <v>100</v>
-      </c>
-      <c r="J22" s="10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G23" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="17" t="s">
+      <c r="I35" s="3">
+        <f>1/I34</f>
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I23" s="14">
-        <f>(I22/60)*I9*I11*I13</f>
-        <v>1333.3333333333335</v>
-      </c>
-    </row>
-    <row r="24" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G24" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="17" t="s">
+      <c r="I36" s="7">
+        <v>1</v>
+      </c>
+      <c r="J36" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="7">
+        <v>50</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I24" s="14">
-        <f>1/I23*10^6</f>
-        <v>749.99999999999989</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14">
-        <f>I24/I21</f>
-        <v>23.437499999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="7:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="G26" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="12">
-        <v>2</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G27" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I27" s="15">
-        <f>I26*I21</f>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="7:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="G28" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I28" s="15">
-        <f>I27*I13*I11</f>
-        <v>256</v>
-      </c>
-      <c r="J28" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="G29" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="I29" s="15">
-        <f>I28*I9</f>
-        <v>51200</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="7:11" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G30" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I30" s="14">
-        <f>10^6/I29*60</f>
-        <v>1171.875</v>
-      </c>
-    </row>
-    <row r="31" spans="7:11" x14ac:dyDescent="0.25">
-      <c r="K31" s="17"/>
-    </row>
-    <row r="35" spans="7:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="G35" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G36" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="H36" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="I36" s="5">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I37" s="5">
-        <f>1/I36</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="9">
-        <v>1</v>
-      </c>
-      <c r="J38" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="7:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="9">
-        <v>50</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I40" s="5">
-        <f>I37*I38*I39</f>
+      <c r="I38" s="3">
+        <f>I35*I36*I37</f>
         <v>3.125</v>
       </c>
     </row>
-    <row r="41" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="7" t="s">
+    <row r="39" spans="7:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H41" s="4" t="s">
+      <c r="H39" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I41" s="5">
-        <f>1/I40*10^6/1000</f>
+      <c r="I39" s="3">
+        <f>1/I38*10^6/1000</f>
         <v>320</v>
       </c>
     </row>
@@ -2467,819 +3477,1515 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="E4:N30"/>
+  <dimension ref="E4:W32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="14" width="12.85546875" style="1" customWidth="1"/>
+    <col min="20" max="23" width="12.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:14" ht="203.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="5:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E7" s="27" t="s">
+    <row r="4" spans="5:23" ht="203.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="5:23" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="J7" s="28" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="J7" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28"/>
-    </row>
-    <row r="9" spans="5:14" ht="60" x14ac:dyDescent="0.25">
-      <c r="E9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="P7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+    </row>
+    <row r="8" spans="5:23" ht="60" x14ac:dyDescent="0.25">
+      <c r="E8" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K8" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M8" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N8" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="R8" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="U8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="V8" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W8" s="31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E9" s="27">
+        <v>0</v>
+      </c>
+      <c r="F9" s="28">
+        <f>E9/60</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="J9" s="30">
+        <v>1</v>
+      </c>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28">
+        <f>N9/60</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="27">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>1</v>
+      </c>
+      <c r="R9" s="30">
+        <f>ROUND(Q9,0)</f>
+        <v>1</v>
+      </c>
+      <c r="S9" s="30">
+        <f>Q9</f>
+        <v>1</v>
+      </c>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="28">
+        <f>W9/60</f>
+        <v>0</v>
+      </c>
+      <c r="W9" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E10" s="27">
+        <v>100</v>
+      </c>
+      <c r="F10" s="28">
+        <f t="shared" ref="F10:F29" si="0">E10/60</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="G10" s="29">
+        <f t="shared" ref="G10:G29" si="1">1000/F10</f>
+        <v>600</v>
+      </c>
+      <c r="H10" s="28">
+        <f>G10-G9</f>
+        <v>600</v>
+      </c>
+      <c r="J10" s="30">
+        <v>2</v>
+      </c>
+      <c r="K10" s="29">
+        <f>G10</f>
+        <v>600</v>
+      </c>
+      <c r="L10" s="28">
+        <f>K10-K9</f>
+        <v>600</v>
+      </c>
+      <c r="M10" s="28">
+        <f>1000/K10</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N10" s="28">
+        <f t="shared" ref="N10:N28" si="2">M10*60</f>
+        <v>100</v>
+      </c>
+      <c r="P10" s="30">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="30">
+        <f>Q9*1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="R10" s="30">
+        <f t="shared" ref="R10:R29" si="3">ROUND(Q10,0)</f>
+        <v>2</v>
+      </c>
+      <c r="S10" s="30">
+        <f>S9+R10</f>
+        <v>3</v>
+      </c>
+      <c r="T10" s="29">
+        <f>G10</f>
+        <v>600</v>
+      </c>
+      <c r="U10" s="28">
+        <f>T10-T9</f>
+        <v>600</v>
+      </c>
+      <c r="V10" s="28">
+        <f>1000/T10</f>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="W10" s="28">
+        <f>V10*60</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E11" s="27">
+        <v>200</v>
+      </c>
+      <c r="F11" s="28">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="G11" s="28">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="H11" s="28">
+        <f t="shared" ref="H11:H28" si="4">G11-G10</f>
+        <v>-300</v>
+      </c>
+      <c r="J11" s="30">
+        <v>3</v>
+      </c>
+      <c r="K11" s="28">
+        <f t="shared" ref="K11:K28" si="5">K10-(K$10-K$29)/(J$29-J$10)</f>
+        <v>570</v>
+      </c>
+      <c r="L11" s="28">
+        <f>K11-K10</f>
+        <v>-30</v>
+      </c>
+      <c r="M11" s="28">
+        <f>1000/K11</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="N11" s="28">
+        <f t="shared" si="2"/>
+        <v>105.26315789473684</v>
+      </c>
+      <c r="P11" s="30">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="30">
+        <f t="shared" ref="Q11:Q29" si="6">Q10*1.5</f>
+        <v>2.25</v>
+      </c>
+      <c r="R11" s="30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="S11" s="30">
+        <f t="shared" ref="S11:S29" si="7">S10+R11</f>
+        <v>5</v>
+      </c>
+      <c r="T11" s="28">
+        <f t="shared" ref="T11:T28" si="8">T10-(T$10-T$29)/(P$29-P$10)</f>
+        <v>570</v>
+      </c>
+      <c r="U11" s="28">
+        <f t="shared" ref="U11:U29" si="9">T11-T10</f>
+        <v>-30</v>
+      </c>
+      <c r="V11" s="28">
+        <f t="shared" ref="V11:V29" si="10">1000/T11</f>
+        <v>1.7543859649122806</v>
+      </c>
+      <c r="W11" s="28">
+        <f t="shared" ref="W11:W28" si="11">V11*60</f>
+        <v>105.26315789473684</v>
+      </c>
+    </row>
+    <row r="12" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E12" s="27">
+        <v>300</v>
+      </c>
+      <c r="F12" s="28">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G12" s="28">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="H12" s="28">
+        <f t="shared" si="4"/>
+        <v>-100</v>
+      </c>
+      <c r="J12" s="30">
+        <v>4</v>
+      </c>
+      <c r="K12" s="28">
+        <f t="shared" si="5"/>
+        <v>540</v>
+      </c>
+      <c r="L12" s="28">
+        <f>K12-K11</f>
+        <v>-30</v>
+      </c>
+      <c r="M12" s="28">
+        <f t="shared" ref="M12:M29" si="12">1000/K12</f>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="N12" s="28">
+        <f t="shared" si="2"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="P12" s="30">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="30">
+        <f t="shared" si="6"/>
+        <v>3.375</v>
+      </c>
+      <c r="R12" s="30">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="S12" s="30">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="T12" s="28">
+        <f t="shared" si="8"/>
+        <v>540</v>
+      </c>
+      <c r="U12" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V12" s="28">
+        <f t="shared" si="10"/>
+        <v>1.8518518518518519</v>
+      </c>
+      <c r="W12" s="28">
+        <f t="shared" si="11"/>
+        <v>111.11111111111111</v>
+      </c>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="27">
+        <v>400</v>
+      </c>
+      <c r="F13" s="28">
+        <f t="shared" si="0"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="G13" s="28">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="4"/>
+        <v>-50</v>
+      </c>
+      <c r="J13" s="30">
+        <v>5</v>
+      </c>
+      <c r="K13" s="28">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="L13" s="28">
+        <f t="shared" ref="L13:L29" si="13">K13-K12</f>
+        <v>-30</v>
+      </c>
+      <c r="M13" s="28">
+        <f t="shared" si="12"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="N13" s="28">
+        <f t="shared" si="2"/>
+        <v>117.64705882352941</v>
+      </c>
+      <c r="P13" s="30">
+        <v>5</v>
+      </c>
+      <c r="Q13" s="30">
+        <f t="shared" si="6"/>
+        <v>5.0625</v>
+      </c>
+      <c r="R13" s="30">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S13" s="30">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="T13" s="28">
+        <f t="shared" si="8"/>
+        <v>510</v>
+      </c>
+      <c r="U13" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V13" s="28">
+        <f t="shared" si="10"/>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="W13" s="28">
+        <f t="shared" si="11"/>
+        <v>117.64705882352941</v>
+      </c>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E14" s="27">
+        <v>500</v>
+      </c>
+      <c r="F14" s="28">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="G14" s="28">
+        <f t="shared" si="1"/>
+        <v>119.99999999999999</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="4"/>
+        <v>-30.000000000000014</v>
+      </c>
+      <c r="J14" s="30">
+        <v>6</v>
+      </c>
+      <c r="K14" s="28">
+        <f t="shared" si="5"/>
+        <v>480</v>
+      </c>
+      <c r="L14" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M14" s="28">
+        <f t="shared" si="12"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="N14" s="28">
+        <f t="shared" si="2"/>
+        <v>125.00000000000001</v>
+      </c>
+      <c r="P14" s="30">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="30">
+        <f t="shared" si="6"/>
+        <v>7.59375</v>
+      </c>
+      <c r="R14" s="30">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="S14" s="30">
+        <f t="shared" si="7"/>
+        <v>21</v>
+      </c>
+      <c r="T14" s="28">
+        <f t="shared" si="8"/>
+        <v>480</v>
+      </c>
+      <c r="U14" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V14" s="28">
+        <f t="shared" si="10"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="W14" s="28">
+        <f t="shared" si="11"/>
+        <v>125.00000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E15" s="27">
+        <v>600</v>
+      </c>
+      <c r="F15" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G15" s="28">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="H15" s="28">
+        <f t="shared" si="4"/>
+        <v>-19.999999999999986</v>
+      </c>
+      <c r="J15" s="30">
+        <v>7</v>
+      </c>
+      <c r="K15" s="28">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="L15" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M15" s="28">
+        <f t="shared" si="12"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="N15" s="28">
+        <f t="shared" si="2"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="P15" s="30">
+        <v>7</v>
+      </c>
+      <c r="Q15" s="30">
+        <f t="shared" si="6"/>
+        <v>11.390625</v>
+      </c>
+      <c r="R15" s="30">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" si="7"/>
+        <v>32</v>
+      </c>
+      <c r="T15" s="28">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="U15" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V15" s="28">
+        <f t="shared" si="10"/>
+        <v>2.2222222222222223</v>
+      </c>
+      <c r="W15" s="28">
+        <f t="shared" si="11"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E16" s="27">
+        <v>700</v>
+      </c>
+      <c r="F16" s="28">
+        <f t="shared" si="0"/>
+        <v>11.666666666666666</v>
+      </c>
+      <c r="G16" s="28">
+        <f t="shared" si="1"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="H16" s="28">
+        <f t="shared" si="4"/>
+        <v>-14.285714285714278</v>
+      </c>
+      <c r="J16" s="30">
+        <v>8</v>
+      </c>
+      <c r="K16" s="28">
+        <f t="shared" si="5"/>
+        <v>420</v>
+      </c>
+      <c r="L16" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M16" s="28">
+        <f t="shared" si="12"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="N16" s="28">
+        <f t="shared" si="2"/>
+        <v>142.85714285714286</v>
+      </c>
+      <c r="P16" s="30">
+        <v>8</v>
+      </c>
+      <c r="Q16" s="30">
+        <f t="shared" si="6"/>
+        <v>17.0859375</v>
+      </c>
+      <c r="R16" s="30">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="S16" s="30">
+        <f t="shared" si="7"/>
+        <v>49</v>
+      </c>
+      <c r="T16" s="28">
+        <f t="shared" si="8"/>
+        <v>420</v>
+      </c>
+      <c r="U16" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V16" s="28">
+        <f t="shared" si="10"/>
+        <v>2.3809523809523809</v>
+      </c>
+      <c r="W16" s="28">
+        <f t="shared" si="11"/>
+        <v>142.85714285714286</v>
+      </c>
+    </row>
+    <row r="17" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E17" s="27">
+        <v>800</v>
+      </c>
+      <c r="F17" s="28">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="G17" s="28">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="H17" s="28">
+        <f t="shared" si="4"/>
+        <v>-10.714285714285722</v>
+      </c>
+      <c r="J17" s="30">
+        <v>9</v>
+      </c>
+      <c r="K17" s="28">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="L17" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M17" s="28">
+        <f t="shared" si="12"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="N17" s="28">
+        <f t="shared" si="2"/>
+        <v>153.84615384615387</v>
+      </c>
+      <c r="P17" s="30">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="30">
+        <f t="shared" si="6"/>
+        <v>25.62890625</v>
+      </c>
+      <c r="R17" s="30">
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2">
-        <f>E10/60</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="e">
-        <f>1000/F10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H10" s="2" t="e">
-        <f t="shared" ref="H10:H29" si="0">G10-G9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="e">
-        <f>1000/M10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L10" s="2" t="e">
-        <f t="shared" ref="L10:L30" si="1">K10-K9</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="2">
-        <f>N10/60</f>
-        <v>0</v>
-      </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" ref="F11:F30" si="2">E11/60</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="G11" s="3">
-        <f t="shared" ref="G11:G30" si="3">1000/F11</f>
-        <v>600</v>
-      </c>
-      <c r="H11" s="2" t="e">
+      <c r="S17" s="30">
+        <f t="shared" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="T17" s="28">
+        <f t="shared" si="8"/>
+        <v>390</v>
+      </c>
+      <c r="U17" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V17" s="28">
+        <f t="shared" si="10"/>
+        <v>2.5641025641025643</v>
+      </c>
+      <c r="W17" s="28">
+        <f t="shared" si="11"/>
+        <v>153.84615384615387</v>
+      </c>
+    </row>
+    <row r="18" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E18" s="27">
+        <v>900</v>
+      </c>
+      <c r="F18" s="28">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J11">
-        <v>2</v>
-      </c>
-      <c r="K11" s="3">
-        <f>G11</f>
-        <v>600</v>
-      </c>
-      <c r="L11" s="2" t="e">
+        <v>15</v>
+      </c>
+      <c r="G18" s="28">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="2">
-        <f t="shared" ref="M11:M30" si="4">1000/K11</f>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="N11" s="2">
-        <f t="shared" ref="N11:N29" si="5">M11*60</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="1">
+        <v>66.666666666666671</v>
+      </c>
+      <c r="H18" s="28">
+        <f t="shared" si="4"/>
+        <v>-8.3333333333333286</v>
+      </c>
+      <c r="J18" s="30">
+        <v>10</v>
+      </c>
+      <c r="K18" s="28">
+        <f t="shared" si="5"/>
+        <v>360</v>
+      </c>
+      <c r="L18" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M18" s="28">
+        <f t="shared" si="12"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="N18" s="28">
+        <f t="shared" si="2"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="P18" s="30">
+        <v>10</v>
+      </c>
+      <c r="Q18" s="30">
+        <f t="shared" si="6"/>
+        <v>38.443359375</v>
+      </c>
+      <c r="R18" s="30">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="S18" s="30">
+        <f t="shared" si="7"/>
+        <v>113</v>
+      </c>
+      <c r="T18" s="28">
+        <f t="shared" si="8"/>
+        <v>360</v>
+      </c>
+      <c r="U18" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V18" s="28">
+        <f t="shared" si="10"/>
+        <v>2.7777777777777777</v>
+      </c>
+      <c r="W18" s="28">
+        <f t="shared" si="11"/>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E19" s="27">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="28">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="G19" s="28">
+        <f t="shared" si="1"/>
+        <v>59.999999999999993</v>
+      </c>
+      <c r="H19" s="28">
+        <f t="shared" si="4"/>
+        <v>-6.6666666666666785</v>
+      </c>
+      <c r="J19" s="30">
+        <v>11</v>
+      </c>
+      <c r="K19" s="28">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="L19" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M19" s="28">
+        <f t="shared" si="12"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="N19" s="28">
+        <f t="shared" si="2"/>
+        <v>181.81818181818181</v>
+      </c>
+      <c r="P19" s="30">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="30">
+        <f t="shared" si="6"/>
+        <v>57.6650390625</v>
+      </c>
+      <c r="R19" s="30">
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="S19" s="30">
+        <f t="shared" si="7"/>
+        <v>171</v>
+      </c>
+      <c r="T19" s="28">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="U19" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V19" s="28">
+        <f t="shared" si="10"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="W19" s="28">
+        <f t="shared" si="11"/>
+        <v>181.81818181818181</v>
+      </c>
+    </row>
+    <row r="20" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E20" s="27">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="28">
+        <f t="shared" si="0"/>
+        <v>18.333333333333332</v>
+      </c>
+      <c r="G20" s="28">
+        <f t="shared" si="1"/>
+        <v>54.545454545454547</v>
+      </c>
+      <c r="H20" s="28">
+        <f t="shared" si="4"/>
+        <v>-5.4545454545454461</v>
+      </c>
+      <c r="J20" s="30">
+        <v>12</v>
+      </c>
+      <c r="K20" s="28">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="L20" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M20" s="28">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="N20" s="28">
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="F12" s="2">
+      <c r="P20" s="30">
+        <v>12</v>
+      </c>
+      <c r="Q20" s="30">
+        <f t="shared" si="6"/>
+        <v>86.49755859375</v>
+      </c>
+      <c r="R20" s="30">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="S20" s="30">
+        <f t="shared" si="7"/>
+        <v>257</v>
+      </c>
+      <c r="T20" s="28">
+        <f t="shared" si="8"/>
+        <v>300</v>
+      </c>
+      <c r="U20" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V20" s="28">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="W20" s="28">
+        <f t="shared" si="11"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E21" s="27">
+        <v>1200</v>
+      </c>
+      <c r="F21" s="28">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="G21" s="28">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="H21" s="28">
+        <f t="shared" si="4"/>
+        <v>-4.5454545454545467</v>
+      </c>
+      <c r="J21" s="30">
+        <v>13</v>
+      </c>
+      <c r="K21" s="28">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="L21" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M21" s="28">
+        <f t="shared" si="12"/>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="N21" s="28">
         <f t="shared" si="2"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="G12" s="2">
+        <v>222.22222222222223</v>
+      </c>
+      <c r="P21" s="30">
+        <v>13</v>
+      </c>
+      <c r="Q21" s="30">
+        <f t="shared" si="6"/>
+        <v>129.746337890625</v>
+      </c>
+      <c r="R21" s="30">
         <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="H12" s="2">
+        <v>130</v>
+      </c>
+      <c r="S21" s="30">
+        <f t="shared" si="7"/>
+        <v>387</v>
+      </c>
+      <c r="T21" s="28">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="U21" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V21" s="28">
+        <f t="shared" si="10"/>
+        <v>3.7037037037037037</v>
+      </c>
+      <c r="W21" s="28">
+        <f t="shared" si="11"/>
+        <v>222.22222222222223</v>
+      </c>
+    </row>
+    <row r="22" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E22" s="27">
+        <v>1300</v>
+      </c>
+      <c r="F22" s="28">
         <f t="shared" si="0"/>
-        <v>-300</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-      <c r="K12" s="2">
-        <f t="shared" ref="K12:K29" si="6">K11-(K$11-K$30)/(J$30-J$11)</f>
-        <v>570</v>
-      </c>
-      <c r="L12" s="2">
+        <v>21.666666666666668</v>
+      </c>
+      <c r="G22" s="28">
         <f t="shared" si="1"/>
+        <v>46.153846153846153</v>
+      </c>
+      <c r="H22" s="28">
+        <f t="shared" si="4"/>
+        <v>-3.8461538461538467</v>
+      </c>
+      <c r="J22" s="30">
+        <v>14</v>
+      </c>
+      <c r="K22" s="28">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="L22" s="28">
+        <f t="shared" si="13"/>
         <v>-30</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M22" s="28">
+        <f t="shared" si="12"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="N22" s="28">
+        <f t="shared" si="2"/>
+        <v>250.00000000000003</v>
+      </c>
+      <c r="P22" s="30">
+        <v>14</v>
+      </c>
+      <c r="Q22" s="30">
+        <f t="shared" si="6"/>
+        <v>194.6195068359375</v>
+      </c>
+      <c r="R22" s="30">
+        <f t="shared" si="3"/>
+        <v>195</v>
+      </c>
+      <c r="S22" s="30">
+        <f t="shared" si="7"/>
+        <v>582</v>
+      </c>
+      <c r="T22" s="28">
+        <f t="shared" si="8"/>
+        <v>240</v>
+      </c>
+      <c r="U22" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V22" s="28">
+        <f t="shared" si="10"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="W22" s="28">
+        <f t="shared" si="11"/>
+        <v>250.00000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E23" s="27">
+        <v>1400</v>
+      </c>
+      <c r="F23" s="28">
+        <f t="shared" si="0"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="G23" s="28">
+        <f t="shared" si="1"/>
+        <v>42.857142857142861</v>
+      </c>
+      <c r="H23" s="28">
         <f t="shared" si="4"/>
-        <v>1.7543859649122806</v>
-      </c>
-      <c r="N12" s="2">
+        <v>-3.2967032967032921</v>
+      </c>
+      <c r="J23" s="30">
+        <v>15</v>
+      </c>
+      <c r="K23" s="28">
         <f t="shared" si="5"/>
-        <v>105.26315789473684</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="1">
-        <v>300</v>
-      </c>
-      <c r="F13" s="2">
+        <v>210</v>
+      </c>
+      <c r="L23" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M23" s="28">
+        <f t="shared" si="12"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="N23" s="28">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G13" s="2">
+        <v>285.71428571428572</v>
+      </c>
+      <c r="P23" s="30">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="30">
+        <f t="shared" si="6"/>
+        <v>291.92926025390625</v>
+      </c>
+      <c r="R23" s="30">
         <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="H13" s="2">
+        <v>292</v>
+      </c>
+      <c r="S23" s="30">
+        <f t="shared" si="7"/>
+        <v>874</v>
+      </c>
+      <c r="T23" s="28">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="U23" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" si="10"/>
+        <v>4.7619047619047619</v>
+      </c>
+      <c r="W23" s="28">
+        <f t="shared" si="11"/>
+        <v>285.71428571428572</v>
+      </c>
+    </row>
+    <row r="24" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E24" s="27">
+        <v>1500</v>
+      </c>
+      <c r="F24" s="28">
         <f t="shared" si="0"/>
-        <v>-100</v>
-      </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-      <c r="K13" s="2">
+        <v>25</v>
+      </c>
+      <c r="G24" s="28">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H24" s="28">
+        <f t="shared" si="4"/>
+        <v>-2.8571428571428612</v>
+      </c>
+      <c r="J24" s="30">
+        <v>16</v>
+      </c>
+      <c r="K24" s="28">
+        <f t="shared" si="5"/>
+        <v>180</v>
+      </c>
+      <c r="L24" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M24" s="28">
+        <f t="shared" si="12"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="N24" s="28">
+        <f t="shared" si="2"/>
+        <v>333.33333333333331</v>
+      </c>
+      <c r="P24" s="30">
+        <v>16</v>
+      </c>
+      <c r="Q24" s="30">
         <f t="shared" si="6"/>
-        <v>540</v>
-      </c>
-      <c r="L13" s="2">
+        <v>437.89389038085938</v>
+      </c>
+      <c r="R24" s="30">
+        <f t="shared" si="3"/>
+        <v>438</v>
+      </c>
+      <c r="S24" s="30">
+        <f t="shared" si="7"/>
+        <v>1312</v>
+      </c>
+      <c r="T24" s="28">
+        <f t="shared" si="8"/>
+        <v>180</v>
+      </c>
+      <c r="U24" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V24" s="28">
+        <f t="shared" si="10"/>
+        <v>5.5555555555555554</v>
+      </c>
+      <c r="W24" s="28">
+        <f t="shared" si="11"/>
+        <v>333.33333333333331</v>
+      </c>
+    </row>
+    <row r="25" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E25" s="27">
+        <v>1600</v>
+      </c>
+      <c r="F25" s="28">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="G25" s="28">
         <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="H25" s="28">
+        <f t="shared" si="4"/>
+        <v>-2.5</v>
+      </c>
+      <c r="J25" s="30">
+        <v>17</v>
+      </c>
+      <c r="K25" s="28">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L25" s="28">
+        <f t="shared" si="13"/>
         <v>-30</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M25" s="28">
+        <f t="shared" si="12"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="N25" s="28">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="P25" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q25" s="30">
+        <f t="shared" si="6"/>
+        <v>656.84083557128906</v>
+      </c>
+      <c r="R25" s="30">
+        <f t="shared" si="3"/>
+        <v>657</v>
+      </c>
+      <c r="S25" s="30">
+        <f t="shared" si="7"/>
+        <v>1969</v>
+      </c>
+      <c r="T25" s="28">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="U25" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V25" s="28">
+        <f t="shared" si="10"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="W25" s="28">
+        <f t="shared" si="11"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="26" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E26" s="27">
+        <v>1700</v>
+      </c>
+      <c r="F26" s="28">
+        <f t="shared" si="0"/>
+        <v>28.333333333333332</v>
+      </c>
+      <c r="G26" s="28">
+        <f t="shared" si="1"/>
+        <v>35.294117647058826</v>
+      </c>
+      <c r="H26" s="28">
         <f t="shared" si="4"/>
-        <v>1.8518518518518519</v>
-      </c>
-      <c r="N13" s="2">
+        <v>-2.205882352941174</v>
+      </c>
+      <c r="J26" s="30">
+        <v>18</v>
+      </c>
+      <c r="K26" s="28">
         <f t="shared" si="5"/>
-        <v>111.11111111111111</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="1">
-        <v>400</v>
-      </c>
-      <c r="F14" s="2">
+        <v>120</v>
+      </c>
+      <c r="L26" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M26" s="28">
+        <f t="shared" si="12"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N26" s="28">
         <f t="shared" si="2"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G14" s="2">
+        <v>500.00000000000006</v>
+      </c>
+      <c r="P26" s="30">
+        <v>18</v>
+      </c>
+      <c r="Q26" s="30">
+        <f t="shared" si="6"/>
+        <v>985.26125335693359</v>
+      </c>
+      <c r="R26" s="30">
         <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="H14" s="2">
+        <v>985</v>
+      </c>
+      <c r="S26" s="30">
+        <f t="shared" si="7"/>
+        <v>2954</v>
+      </c>
+      <c r="T26" s="28">
+        <f t="shared" si="8"/>
+        <v>120</v>
+      </c>
+      <c r="U26" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V26" s="28">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="W26" s="28">
+        <f t="shared" si="11"/>
+        <v>500.00000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E27" s="27">
+        <v>1800</v>
+      </c>
+      <c r="F27" s="28">
         <f t="shared" si="0"/>
-        <v>-50</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14" s="2">
+        <v>30</v>
+      </c>
+      <c r="G27" s="28">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" si="4"/>
+        <v>-1.9607843137254903</v>
+      </c>
+      <c r="J27" s="30">
+        <v>19</v>
+      </c>
+      <c r="K27" s="28">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="L27" s="28">
+        <f t="shared" si="13"/>
+        <v>-30</v>
+      </c>
+      <c r="M27" s="28">
+        <f t="shared" si="12"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N27" s="28">
+        <f t="shared" si="2"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="P27" s="30">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="30">
         <f t="shared" si="6"/>
-        <v>510</v>
-      </c>
-      <c r="L14" s="2">
+        <v>1477.8918800354004</v>
+      </c>
+      <c r="R27" s="30">
+        <f t="shared" si="3"/>
+        <v>1478</v>
+      </c>
+      <c r="S27" s="30">
+        <f t="shared" si="7"/>
+        <v>4432</v>
+      </c>
+      <c r="T27" s="28">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="U27" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V27" s="28">
+        <f t="shared" si="10"/>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="W27" s="28">
+        <f t="shared" si="11"/>
+        <v>666.66666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E28" s="27">
+        <v>1900</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="0"/>
+        <v>31.666666666666668</v>
+      </c>
+      <c r="G28" s="28">
         <f t="shared" si="1"/>
+        <v>31.578947368421051</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="4"/>
+        <v>-1.7543859649122844</v>
+      </c>
+      <c r="J28" s="30">
+        <v>20</v>
+      </c>
+      <c r="K28" s="28">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="L28" s="28">
+        <f t="shared" si="13"/>
         <v>-30</v>
       </c>
-      <c r="M14" s="2">
-        <f t="shared" si="4"/>
-        <v>1.9607843137254901</v>
-      </c>
-      <c r="N14" s="2">
-        <f t="shared" si="5"/>
-        <v>117.64705882352941</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="1">
-        <v>500</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="M28" s="28">
+        <f t="shared" si="12"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="N28" s="28">
         <f t="shared" si="2"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="G15" s="2">
+        <v>1000.0000000000001</v>
+      </c>
+      <c r="P28" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="30">
+        <f t="shared" si="6"/>
+        <v>2216.8378200531006</v>
+      </c>
+      <c r="R28" s="30">
         <f t="shared" si="3"/>
-        <v>119.99999999999999</v>
-      </c>
-      <c r="H15" s="2">
+        <v>2217</v>
+      </c>
+      <c r="S28" s="30">
+        <f t="shared" si="7"/>
+        <v>6649</v>
+      </c>
+      <c r="T28" s="28">
+        <f t="shared" si="8"/>
+        <v>60</v>
+      </c>
+      <c r="U28" s="28">
+        <f t="shared" si="9"/>
+        <v>-30</v>
+      </c>
+      <c r="V28" s="28">
+        <f t="shared" si="10"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="W28" s="28">
+        <f t="shared" si="11"/>
+        <v>1000.0000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E29" s="27">
+        <v>2000</v>
+      </c>
+      <c r="F29" s="28">
         <f t="shared" si="0"/>
-        <v>-30.000000000000014</v>
-      </c>
-      <c r="J15">
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G29" s="29">
+        <f t="shared" si="1"/>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="H29" s="28">
+        <f>G29-G28</f>
+        <v>-1.5789473684210549</v>
+      </c>
+      <c r="J29" s="30">
+        <v>21</v>
+      </c>
+      <c r="K29" s="29">
+        <f>G29</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="L29" s="28">
+        <f t="shared" si="13"/>
+        <v>-30.000000000000004</v>
+      </c>
+      <c r="M29" s="28">
+        <f t="shared" si="12"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="N29" s="27">
+        <v>2000</v>
+      </c>
+      <c r="P29" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q29" s="30">
+        <f t="shared" si="6"/>
+        <v>3325.2567300796509</v>
+      </c>
+      <c r="R29" s="30">
+        <f t="shared" si="3"/>
+        <v>3325</v>
+      </c>
+      <c r="S29" s="30">
+        <f t="shared" si="7"/>
+        <v>9974</v>
+      </c>
+      <c r="T29" s="29">
+        <f>G29</f>
+        <v>29.999999999999996</v>
+      </c>
+      <c r="U29" s="28">
+        <f t="shared" si="9"/>
+        <v>-30.000000000000004</v>
+      </c>
+      <c r="V29" s="28">
+        <f t="shared" si="10"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="W29" s="27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="P30" s="26"/>
+    </row>
+    <row r="31" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="Q31" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33">
+        <v>11</v>
+      </c>
+      <c r="T31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="2">
-        <f t="shared" si="6"/>
-        <v>480</v>
-      </c>
-      <c r="L15" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M15" s="2">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="N15" s="2">
-        <f t="shared" si="5"/>
-        <v>125.00000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="1">
-        <v>600</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>-19.999999999999986</v>
-      </c>
-      <c r="J16">
-        <v>7</v>
-      </c>
-      <c r="K16" s="2">
-        <f t="shared" si="6"/>
-        <v>450</v>
-      </c>
-      <c r="L16" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M16" s="2">
-        <f t="shared" si="4"/>
-        <v>2.2222222222222223</v>
-      </c>
-      <c r="N16" s="2">
-        <f t="shared" si="5"/>
-        <v>133.33333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E17" s="1">
-        <v>700</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="2"/>
-        <v>11.666666666666666</v>
-      </c>
-      <c r="G17" s="2">
-        <f t="shared" si="3"/>
-        <v>85.714285714285722</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>-14.285714285714278</v>
-      </c>
-      <c r="J17">
-        <v>8</v>
-      </c>
-      <c r="K17" s="2">
-        <f t="shared" si="6"/>
-        <v>420</v>
-      </c>
-      <c r="L17" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M17" s="2">
-        <f t="shared" si="4"/>
-        <v>2.3809523809523809</v>
-      </c>
-      <c r="N17" s="2">
-        <f t="shared" si="5"/>
-        <v>142.85714285714286</v>
-      </c>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E18" s="1">
-        <v>800</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="2"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="G18" s="2">
-        <f t="shared" si="3"/>
-        <v>75</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>-10.714285714285722</v>
-      </c>
-      <c r="J18">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2">
-        <f t="shared" si="6"/>
-        <v>390</v>
-      </c>
-      <c r="L18" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="4"/>
-        <v>2.5641025641025643</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="5"/>
-        <v>153.84615384615387</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E19" s="1">
-        <v>900</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="G19" s="2">
-        <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>-8.3333333333333286</v>
-      </c>
-      <c r="J19">
-        <v>10</v>
-      </c>
-      <c r="K19" s="2">
-        <f t="shared" si="6"/>
-        <v>360</v>
-      </c>
-      <c r="L19" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M19" s="2">
-        <f t="shared" si="4"/>
-        <v>2.7777777777777777</v>
-      </c>
-      <c r="N19" s="2">
-        <f t="shared" si="5"/>
-        <v>166.66666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E20" s="1">
-        <v>1000</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="G20" s="2">
-        <f t="shared" si="3"/>
-        <v>59.999999999999993</v>
-      </c>
-      <c r="H20" s="2">
-        <f t="shared" si="0"/>
-        <v>-6.6666666666666785</v>
-      </c>
-      <c r="J20">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2">
-        <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="L20" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M20" s="2">
-        <f t="shared" si="4"/>
-        <v>3.0303030303030303</v>
-      </c>
-      <c r="N20" s="2">
-        <f t="shared" si="5"/>
-        <v>181.81818181818181</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <v>1100</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="2"/>
-        <v>18.333333333333332</v>
-      </c>
-      <c r="G21" s="2">
-        <f t="shared" si="3"/>
-        <v>54.545454545454547</v>
-      </c>
-      <c r="H21" s="2">
-        <f t="shared" si="0"/>
-        <v>-5.4545454545454461</v>
-      </c>
-      <c r="J21">
-        <v>12</v>
-      </c>
-      <c r="K21" s="2">
-        <f t="shared" si="6"/>
-        <v>300</v>
-      </c>
-      <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M21" s="2">
-        <f t="shared" si="4"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="N21" s="2">
-        <f t="shared" si="5"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
-        <v>1200</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G22" s="2">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="H22" s="2">
-        <f t="shared" si="0"/>
-        <v>-4.5454545454545467</v>
-      </c>
-      <c r="J22">
-        <v>13</v>
-      </c>
-      <c r="K22" s="2">
-        <f t="shared" si="6"/>
-        <v>270</v>
-      </c>
-      <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M22" s="2">
-        <f t="shared" si="4"/>
-        <v>3.7037037037037037</v>
-      </c>
-      <c r="N22" s="2">
-        <f t="shared" si="5"/>
-        <v>222.22222222222223</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="1">
-        <v>1300</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="2"/>
-        <v>21.666666666666668</v>
-      </c>
-      <c r="G23" s="2">
-        <f t="shared" si="3"/>
-        <v>46.153846153846153</v>
-      </c>
-      <c r="H23" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.8461538461538467</v>
-      </c>
-      <c r="J23">
-        <v>14</v>
-      </c>
-      <c r="K23" s="2">
-        <f t="shared" si="6"/>
-        <v>240</v>
-      </c>
-      <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M23" s="2">
-        <f t="shared" si="4"/>
-        <v>4.166666666666667</v>
-      </c>
-      <c r="N23" s="2">
-        <f t="shared" si="5"/>
-        <v>250.00000000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E24" s="1">
-        <v>1400</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="2"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="G24" s="2">
-        <f t="shared" si="3"/>
-        <v>42.857142857142861</v>
-      </c>
-      <c r="H24" s="2">
-        <f t="shared" si="0"/>
-        <v>-3.2967032967032921</v>
-      </c>
-      <c r="J24">
-        <v>15</v>
-      </c>
-      <c r="K24" s="2">
-        <f t="shared" si="6"/>
-        <v>210</v>
-      </c>
-      <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M24" s="2">
-        <f t="shared" si="4"/>
-        <v>4.7619047619047619</v>
-      </c>
-      <c r="N24" s="2">
-        <f t="shared" si="5"/>
-        <v>285.71428571428572</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E25" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="G25" s="2">
-        <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="H25" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.8571428571428612</v>
-      </c>
-      <c r="J25">
-        <v>16</v>
-      </c>
-      <c r="K25" s="2">
-        <f t="shared" si="6"/>
-        <v>180</v>
-      </c>
-      <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M25" s="2">
-        <f t="shared" si="4"/>
-        <v>5.5555555555555554</v>
-      </c>
-      <c r="N25" s="2">
-        <f t="shared" si="5"/>
-        <v>333.33333333333331</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E26" s="1">
-        <v>1600</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="2"/>
-        <v>26.666666666666668</v>
-      </c>
-      <c r="G26" s="2">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.5</v>
-      </c>
-      <c r="J26">
-        <v>17</v>
-      </c>
-      <c r="K26" s="2">
-        <f t="shared" si="6"/>
-        <v>150</v>
-      </c>
-      <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M26" s="2">
-        <f t="shared" si="4"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="N26" s="2">
-        <f t="shared" si="5"/>
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E27" s="1">
-        <v>1700</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="2"/>
-        <v>28.333333333333332</v>
-      </c>
-      <c r="G27" s="2">
-        <f t="shared" si="3"/>
-        <v>35.294117647058826</v>
-      </c>
-      <c r="H27" s="2">
-        <f t="shared" si="0"/>
-        <v>-2.205882352941174</v>
-      </c>
-      <c r="J27">
-        <v>18</v>
-      </c>
-      <c r="K27" s="2">
-        <f t="shared" si="6"/>
-        <v>120</v>
-      </c>
-      <c r="L27" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M27" s="2">
-        <f t="shared" si="4"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="N27" s="2">
-        <f t="shared" si="5"/>
-        <v>500.00000000000006</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E28" s="1">
-        <v>1800</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="G28" s="2">
-        <f t="shared" si="3"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="H28" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.9607843137254903</v>
-      </c>
-      <c r="J28">
-        <v>19</v>
-      </c>
-      <c r="K28" s="2">
-        <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="L28" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M28" s="2">
-        <f t="shared" si="4"/>
-        <v>11.111111111111111</v>
-      </c>
-      <c r="N28" s="2">
-        <f t="shared" si="5"/>
-        <v>666.66666666666663</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="1">
-        <v>1900</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="2"/>
-        <v>31.666666666666668</v>
-      </c>
-      <c r="G29" s="2">
-        <f t="shared" si="3"/>
-        <v>31.578947368421051</v>
-      </c>
-      <c r="H29" s="2">
-        <f t="shared" si="0"/>
-        <v>-1.7543859649122844</v>
-      </c>
-      <c r="J29">
-        <v>20</v>
-      </c>
-      <c r="K29" s="2">
-        <f t="shared" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="L29" s="2">
-        <f t="shared" si="1"/>
-        <v>-30</v>
-      </c>
-      <c r="M29" s="2">
-        <f t="shared" si="4"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="N29" s="2">
-        <f t="shared" si="5"/>
-        <v>1000.0000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="5:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="1">
-        <v>2000</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="3"/>
-        <v>29.999999999999996</v>
-      </c>
-      <c r="H30" s="2">
-        <f>G30-G29</f>
-        <v>-1.5789473684210549</v>
-      </c>
-      <c r="J30">
-        <v>21</v>
-      </c>
-      <c r="K30" s="3">
-        <f>G30</f>
-        <v>29.999999999999996</v>
-      </c>
-      <c r="L30" s="2">
-        <f t="shared" si="1"/>
-        <v>-30.000000000000004</v>
-      </c>
-      <c r="M30" s="2">
-        <f t="shared" si="4"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="N30" s="1">
-        <v>2000</v>
+    </row>
+    <row r="32" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="Q32" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" s="34"/>
+      <c r="S32" s="36">
+        <f>S31*S29/1000</f>
+        <v>109.714</v>
+      </c>
+      <c r="T32" s="27" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="P7:W7"/>
     <mergeCell ref="E7:H7"/>
     <mergeCell ref="J7:N7"/>
   </mergeCells>

--- a/calculations/motor_calculations.xlsx
+++ b/calculations/motor_calculations.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\realslimshady\Documents\git\stepper-satellite\calculations\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D15374-0214-48F6-87FA-18C38594CB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="STEPPER AND INTERUPT" sheetId="1" r:id="rId1"/>
@@ -228,7 +222,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -594,10 +588,10 @@
     </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Output" xfId="2" builtinId="21"/>
+    <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
+    <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
+    <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -613,9 +607,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -742,7 +736,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-D5DE-44E1-A6A0-82EB2F56B26B}"/>
             </c:ext>
@@ -847,7 +841,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-D5DE-44E1-A6A0-82EB2F56B26B}"/>
             </c:ext>
@@ -861,12 +855,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="874251024"/>
-        <c:axId val="524172912"/>
+        <c:axId val="56178176"/>
+        <c:axId val="56180096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="874251024"/>
+        <c:axId val="56178176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,26 +915,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -974,10 +949,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="524172912"/>
+        <c:crossAx val="56180096"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -985,7 +960,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524172912"/>
+        <c:axId val="56180096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="2000"/>
@@ -1040,26 +1015,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-CH"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1091,10 +1046,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="874251024"/>
+        <c:crossAx val="56178176"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -1144,20 +1099,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1181,7 +1136,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1193,9 +1148,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1383,7 +1338,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-6DA2-4B5D-A793-5CC04ED6F40F}"/>
             </c:ext>
@@ -1397,11 +1352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="148629631"/>
-        <c:axId val="150125983"/>
+        <c:axId val="56430976"/>
+        <c:axId val="56432512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="148629631"/>
+        <c:axId val="56430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,15 +1410,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-CH"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="150125983"/>
+        <c:crossAx val="56432512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150125983"/>
+        <c:axId val="56432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1487,7 +1442,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="148629631"/>
+        <c:crossAx val="56430976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1526,20 +1481,20 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-CH"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
           <c16r3:dispNaAsBlank val="1"/>
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1563,7 +1518,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-CH"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2706,7 +2661,7 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4E223F7-F7DD-4BD3-AFEC-7F4AEB6AEE7C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4E223F7-F7DD-4BD3-AFEC-7F4AEB6AEE7C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2742,7 +2697,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65BCECE1-55EB-41D1-B082-9EA14BF676BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{65BCECE1-55EB-41D1-B082-9EA14BF676BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2764,9 +2719,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2804,9 +2759,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2839,26 +2794,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2891,26 +2829,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3083,14 +3004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="G5:K39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="11.42578125" style="2"/>
     <col min="7" max="7" width="38" style="5" customWidth="1"/>
@@ -3476,14 +3397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E4:W32"/>
   <sheetViews>
     <sheetView topLeftCell="D7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="8" width="12.85546875" style="1" customWidth="1"/>
     <col min="11" max="14" width="12.85546875" style="1" customWidth="1"/>
@@ -4595,7 +4516,7 @@
       </c>
       <c r="Q24" s="30">
         <f t="shared" si="6"/>
-        <v>437.89389038085938</v>
+        <v>437.89389038085937</v>
       </c>
       <c r="R24" s="30">
         <f t="shared" si="3"/>
